--- a/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,12</t>
+          <t>2,34; 5,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,87</t>
+          <t>1,41; 4,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,65</t>
+          <t>1,72; 5,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,98</t>
+          <t>4,85; 8,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,23</t>
+          <t>2,96; 7,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,0</t>
+          <t>6,07; 11,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,15</t>
+          <t>3,93; 6,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,86</t>
+          <t>2,51; 5,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,85</t>
+          <t>4,24; 7,46</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,72</t>
+          <t>3,17; 7,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,7</t>
+          <t>0,51; 3,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,92</t>
+          <t>0,72; 3,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,81</t>
+          <t>6,96; 11,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,94</t>
+          <t>1,82; 5,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,89</t>
+          <t>2,41; 6,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,71</t>
+          <t>5,89; 9,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,21</t>
+          <t>1,46; 3,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,33</t>
+          <t>1,93; 4,39</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,11</t>
+          <t>3,59; 6,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,29</t>
+          <t>0,07; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,29</t>
+          <t>0,56; 4,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 14,72</t>
+          <t>4,75; 10,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,02</t>
+          <t>7,36; 17,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,54</t>
+          <t>4,25; 12,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,55</t>
+          <t>4,28; 7,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,16</t>
+          <t>0,7; 5,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,5</t>
+          <t>2,03; 5,5</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,56</t>
+          <t>4,25; 7,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,36</t>
+          <t>1,55; 4,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,48</t>
+          <t>0,94; 3,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,93</t>
+          <t>7,44; 11,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,2</t>
+          <t>1,45; 6,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 9,95</t>
+          <t>4,03; 8,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,43</t>
+          <t>6,27; 8,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,91</t>
+          <t>1,9; 4,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 7,74</t>
+          <t>2,74; 5,21</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,83</t>
+          <t>2,58; 7,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,17</t>
+          <t>0,08; 4,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,98</t>
+          <t>0,31; 2,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,14</t>
+          <t>7,6; 12,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,21</t>
+          <t>3,08; 7,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,81</t>
+          <t>2,87; 7,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,49</t>
+          <t>6,13; 9,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,62</t>
+          <t>2,64; 5,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,38</t>
+          <t>1,91; 4,78</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>12,45%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,52%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,08; 5,78</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,92</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 4,31</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>9,62; 15,09</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 8,28</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0; 9,99</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 7,51</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,47; 12,61</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>7,68; 11,74</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 6,51</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 5,61</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 5,98</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 9,45</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,93</t>
+          <t>3,83; 5,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,67</t>
+          <t>1,1; 2,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,74</t>
+          <t>1,4; 2,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 7,55</t>
+          <t>8,15; 9,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 5,84</t>
+          <t>3,55; 6,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,48; 9,04</t>
+          <t>5,07; 7,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,83</t>
+          <t>6,3; 7,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,14</t>
+          <t>2,7; 4,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 6,76</t>
+          <t>3,41; 4,69</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos reconstruyentes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5013</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9929</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9038</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9302</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13993</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23464</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14315</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23922</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32502</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3412; 7426</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5188; 17861</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5073; 15406</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6930; 12079</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8844; 23056</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16789; 32096</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11341; 17771</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16707; 35780</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24251; 42696</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4664</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3332</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10019</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8694</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9288</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14149</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13358</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2574; 6443</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1653; 11217</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1404; 6879</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7596; 13056</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4732; 14047</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5586; 14960</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11204; 17675</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8546; 21029</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8266; 18764</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8092</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4033</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2934</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4527</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11161</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6201</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12619</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15194</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9135</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5890; 11117</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>339; 11985</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1014; 7985</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2999; 6545</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7180; 16872</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3519; 10568</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9706; 16264</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4027; 30709</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5354; 14492</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9436</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14054</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16248</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23566</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18564</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25684</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37620</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23830</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7232; 12356</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8308; 22381</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2904; 9656</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13179; 20084</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9226; 39379</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12749; 26316</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21777; 30750</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22335; 51354</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17135; 32514</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2402</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12764</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23272</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7761</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16141</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25674</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1980; 5519</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>176; 9440</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>459; 3664</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10104; 16141</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13042; 32426</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4447; 12168</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12869; 19983</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16757; 34582</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5831; 14604</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14724</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>29019</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15896</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>30825</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>490; 2618</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9873</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11378; 17843</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>20393; 40573</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1142</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12564; 19195</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21160; 42761</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1166</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31219</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>36886</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22233</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>67584</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>109706</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>65278</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>98803</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>146592</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>87511</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>26160; 36508</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>22884; 50201</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16004; 30798</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>60623; 74156</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>78371; 134822</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>54410; 80114</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>89819; 107774</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>115527; 175129</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>75563; 103868</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 1142</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 1166</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes</t>
+          <t>Consumo de medicamentos reconstruyentes (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes</t>
+          <t>Consumo de medicamentos reconstruyentes (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,09</t>
+          <t>2,27; 4,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,87</t>
+          <t>1,3; 4,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,45</t>
+          <t>4,66; 7,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,71</t>
+          <t>2,86; 7,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,16</t>
+          <t>3,84; 6,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,38</t>
+          <t>2,42; 5,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,94</t>
+          <t>2,59; 6,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,46</t>
+          <t>0,5; 3,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,97</t>
+          <t>6,17; 10,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,4</t>
+          <t>1,91; 5,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,89; 9,29</t>
+          <t>5,0; 8,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,6</t>
+          <t>1,47; 3,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,78</t>
+          <t>2,79; 5,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,52</t>
+          <t>0,03; 2,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,36</t>
+          <t>4,35; 9,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 17,29</t>
+          <t>7,36; 16,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,16</t>
+          <t>3,72; 6,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,36</t>
+          <t>0,83; 5,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,26</t>
+          <t>4,04; 7,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,17</t>
+          <t>1,56; 4,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,33</t>
+          <t>6,71; 10,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,19</t>
+          <t>1,16; 6,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,85</t>
+          <t>5,85; 8,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,38</t>
+          <t>1,84; 4,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,18</t>
+          <t>2,04; 5,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,48</t>
+          <t>0,08; 4,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,14</t>
+          <t>6,75; 10,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,65</t>
+          <t>2,86; 7,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,53</t>
+          <t>5,39; 8,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,45</t>
+          <t>2,6; 5,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,78</t>
+          <t>0,82; 5,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,92</t>
+          <t>0,0; 6,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,09</t>
+          <t>9,38; 14,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,28</t>
+          <t>4,21; 8,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,74</t>
+          <t>6,89; 10,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,51</t>
+          <t>3,2; 6,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,34</t>
+          <t>3,31; 4,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,41</t>
+          <t>1,14; 2,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 9,97</t>
+          <t>7,47; 9,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,11</t>
+          <t>3,4; 5,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,3; 7,55</t>
+          <t>5,68; 6,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,09</t>
+          <t>2,68; 4,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>10350</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14315</t>
+          <t>15883</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3412; 7426</t>
+          <t>3700; 7962</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5188; 17861</t>
+          <t>4770; 17796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6930; 12079</t>
+          <t>7857; 13289</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8844; 23056</t>
+          <t>8539; 21158</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11341; 17771</t>
+          <t>12725; 20051</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16707; 35780</t>
+          <t>16124; 34394</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4129</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10019</t>
+          <t>9981</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14149</t>
+          <t>13669</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2574; 6443</t>
+          <t>2340; 5791</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1653; 11217</t>
+          <t>1621; 10305</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7596; 13056</t>
+          <t>7567; 12795</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4732; 14047</t>
+          <t>4964; 13502</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11204; 17675</t>
+          <t>10651; 17252</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8546; 21029</t>
+          <t>8563; 20395</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8092</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12619</t>
+          <t>10097</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5890; 11117</t>
+          <t>4301; 8117</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>339; 11985</t>
+          <t>119; 11572</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2999; 6545</t>
+          <t>2680; 6031</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7180; 16872</t>
+          <t>7183; 16492</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9706; 16264</t>
+          <t>8025; 13002</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4027; 30709</t>
+          <t>4776; 30315</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9436</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16248</t>
+          <t>15029</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25684</t>
+          <t>24331</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7232; 12356</t>
+          <t>6851; 12254</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8308; 22381</t>
+          <t>8373; 23489</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13179; 20084</t>
+          <t>12219; 18510</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9226; 39379</t>
+          <t>7353; 38916</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21777; 30750</t>
+          <t>20598; 28355</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22335; 51354</t>
+          <t>21530; 52108</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12764</t>
+          <t>10817</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16141</t>
+          <t>13380</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1980; 5519</t>
+          <t>1521; 4114</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>176; 9440</t>
+          <t>164; 9480</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10104; 16141</t>
+          <t>8463; 13514</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13042; 32426</t>
+          <t>12130; 31901</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12869; 19983</t>
+          <t>10780; 16348</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16757; 34582</t>
+          <t>16493; 34869</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14724</t>
+          <t>14062</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15896</t>
+          <t>15326</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>490; 2618</t>
+          <t>457; 2897</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 9873</t>
+          <t>0; 10356</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11378; 17843</t>
+          <t>11503; 17313</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20393; 40573</t>
+          <t>20622; 41293</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12564; 19195</t>
+          <t>12281; 18734</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>21160; 42761</t>
+          <t>21019; 42820</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>31219</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>67584</t>
+          <t>64505</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98803</t>
+          <t>92686</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>26160; 36508</t>
+          <t>23422; 32837</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>22884; 50201</t>
+          <t>23802; 53072</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>60623; 74156</t>
+          <t>58463; 71756</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>78371; 134822</t>
+          <t>74966; 131277</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>89819; 107774</t>
+          <t>84592; 100383</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>115527; 175129</t>
+          <t>115060; 172335</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,4%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,14%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,68%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,48%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>4,79%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,21; 4,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 5,21</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,27; 4,89</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 4,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 5,21</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2,93; 7,1</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 11,6</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>4,66; 7,88</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 7,08</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 11,6</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,43; 5,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 7,46</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>3,84; 6,05</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 5,17</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,24; 7,46</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>4,08%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>8,14%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>6,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,46; 3,05</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 3,51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2,59; 6,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 3,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 3,51</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,81; 4,85</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 6,45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>6,17; 10,43</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 5,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 6,45</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1,38; 3,31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 4,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>5,0; 8,1</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 3,49</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 4,39</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,79%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>11,27%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>6,92%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,49%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,73; 3,96</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,41</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2,79; 5,28</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 2,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 4,41</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>7,04; 16,44</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 12,76</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>4,35; 9,79</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 16,9</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 12,76</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,13; 6,77</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 5,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3,72; 6,03</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 5,29</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 5,5</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>5,48%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>8,25%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>6,91%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,78; 4,9</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 3,13</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>4,04; 7,22</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 4,38</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 3,13</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3,87; 7,32</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 8,33</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>6,71; 10,16</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 6,12</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 8,33</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,03; 5,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 5,21</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5,85; 8,06</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 4,44</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 5,21</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3,44%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>8,63%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>6,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,29; 3,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 2,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>2,04; 5,53</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 4,5</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 2,44</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>4,75; 8,71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 7,85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>6,75; 10,78</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 7,52</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 7,85</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3,48; 6,22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 4,78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>5,39; 8,18</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 5,49</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 4,78</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2,27%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>11,47%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>8,6%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,76</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,82; 5,21</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 7,75</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>9,38; 14,12</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,21; 8,43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 6,1</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>6,89; 10,51</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 6,52</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>3,99%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>8,24%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>4,97%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>6,22%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,59; 2,99</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 2,7</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>3,31; 4,65</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 2,55</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 2,7</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>4,77; 6,31</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 7,46</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7,47; 9,16</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 5,95</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>5,07; 7,46</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>3,37; 4,45</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 4,69</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>5,68; 6,74</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 4,02</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 4,69</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>87</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>10020</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9038</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>5533</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9929</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9038</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>15483</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23464</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>10350</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>13993</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>23464</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>25503</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32502</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>15883</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>23922</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>32502</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4788; 18081</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5073; 15406</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>3700; 7962</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4770; 17796</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5073; 15406</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>9613; 23275</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16789; 32096</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7857; 13289</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8539; 21158</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>16789; 32096</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>17554; 36585</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24251; 42696</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>12725; 20051</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16124; 34394</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>24251; 42696</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3332</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3688</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4664</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3332</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>8921</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9288</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>9981</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8694</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9288</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>13613</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>13669</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13358</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12620</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1600; 10494</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1404; 6879</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2340; 5791</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1621; 10305</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1404; 6879</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>5196; 13908</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5586; 14960</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7567; 12795</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4964; 13502</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5586; 14960</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>8722; 20870</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8266; 18764</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>10651; 17252</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>8563; 20395</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8266; 18764</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>68</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4787</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2934</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>5831</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4033</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2934</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>12570</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6201</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4266</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11161</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6201</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>17357</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9135</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>10097</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>15194</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>9135</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1891; 10325</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1014; 7985</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>4301; 8117</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>119; 11572</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1014; 7985</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7849; 18331</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3519; 10568</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2680; 6031</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7183; 16492</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3519; 10568</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>11630; 25169</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5354; 14492</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>8025; 13002</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4776; 30315</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5354; 14492</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>145</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>18638</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>9302</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14054</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5267</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>25879</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18564</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>15029</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23566</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>18564</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>44518</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23830</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>24331</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>37620</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>23830</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>10867; 29915</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2904; 9656</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>6851; 12254</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8373; 23489</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2904; 9656</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>18953; 35842</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12749; 26316</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>12219; 18510</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7353; 38916</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12749; 26316</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>33327; 57871</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17135; 32514</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>20598; 28355</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>21530; 52108</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17135; 32514</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>88</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>2563</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2402</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1662</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>26965</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7761</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>10817</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>23272</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7761</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>30570</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>13380</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>25674</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>9423</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>732; 10032</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>459; 3664</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>1521; 4114</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>164; 9480</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>459; 3664</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>19387; 35535</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4447; 12168</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>8463; 13514</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>12130; 31901</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>4447; 12168</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>23009; 41081</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5831; 14604</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>10780; 16348</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>16493; 34869</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>5831; 14604</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>91</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>1263</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1805</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30002</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>14062</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>29019</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31657</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>15326</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>30825</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>0; 9768</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>457; 2897</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0; 10356</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21359; 42394</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>11503; 17313</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>20622; 41293</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>21834; 43681</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>12281; 18734</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>21019; 42820</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>388</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>557</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>163</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>43398</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22233</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>28181</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>36886</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>22233</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>119821</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>65278</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>64505</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>109706</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>65278</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>163218</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>87511</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>92686</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>146592</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>87511</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>32266; 60721</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16004; 30798</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>23422; 32837</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>23802; 53072</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>16004; 30798</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>103487; 136963</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>54410; 80114</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>58463; 71756</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>74966; 131277</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>54410; 80114</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>141821; 187120</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>75563; 103868</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>84592; 100383</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>115060; 172335</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>75563; 103868</t>
         </is>
       </c>
     </row>
